--- a/data/Subset1_WithDialogActs/Towers 1_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Towers 1_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3573,12 +3573,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
